--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -72,10 +77,10 @@
     <t>La actualización del registro se debe hacer en la base de datos del servidor</t>
   </si>
   <si>
-    <t>Agregar momo y carta a acreditaciones</t>
-  </si>
-  <si>
     <t>Cuando se haga una sustitución se tiene que seleccionar el empleado que se retira del comité</t>
+  </si>
+  <si>
+    <t>Agregar memo y carta a acreditaciones</t>
   </si>
 </sst>
 </file>
@@ -112,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +133,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +185,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -198,6 +197,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +604,7 @@
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -612,7 +614,7 @@
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>

--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +192,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,7 +507,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +605,14 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">

--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -260,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -605,24 +600,24 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">

--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -165,19 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -528,106 +522,106 @@
       </c>
     </row>
     <row r="3" spans="2:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -75,14 +75,53 @@
     <t>Cuando se haga una sustitución se tiene que seleccionar el empleado que se retira del comité</t>
   </si>
   <si>
-    <t>Agregar memo y carta a acreditaciones</t>
+    <t>En la parte de “Datos de control de visitas de verificaciones” en el paso 1, cambiar etiqueta “observaciones” por “resultado de la verificación”.</t>
+  </si>
+  <si>
+    <t>En reporte de las Visitas de Promoción, en “Establecimientos, que debe llamarse Lugares de Trabajo”, debe incluir los siguientes datos: Total de trabajadores, Total de miembros del comité, Cambiar “Ubicación” por Dirección completa, Si aplica o no aplica la conformación de comité, Nombre del representante legal, Persona que atendió, Teléfono, Correo, Hora de la visita, Resultado de  visita (en este momento es observaciones), Clasificación CIIU, Tipo de lugar de trabajo.</t>
+  </si>
+  <si>
+    <t>El reporte de Capacitaciones debe incluir los siguientes datos: (Capacitaciones) Fecha de capacitación, Nombre del Lugar de Trabajo, Dirección completa de la empresa, número de capacitados (hombres y mujeres), total de beneficiarios (hombres y mujeres), sector, capacitación interna o externa.</t>
+  </si>
+  <si>
+    <t>El reporte de Capacitaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de capacitaciones impartidas.</t>
+  </si>
+  <si>
+    <t>El reporte de Acreditaciones debe incluir los siguientes datos: (Acreditaciones), Fecha de emisión de acreditaciones, Nombre de lugar de trabajo, Dirección del Lugar de Trabajo, Nombre Y número de DUI de persona que retiró las acreditaciones, Fecha de retiro de las acreditaciones, Nómina de personas acreditadas, Cargo en el comité de cada persona acreditada, Fecha de capacitación por cada persona acreditada.</t>
+  </si>
+  <si>
+    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Visitas), Fecha de visita, hora de visita, Nombre y dirección completa del lugar de Trabajo, persona que atendió, Resultado de la visita (hoy es observación), Estado del cumplimiento, nómina de personas entrevistadas, persona o entidad que impartió la capacitación de 48 horas, fecha capacitación</t>
+  </si>
+  <si>
+    <t>En la parte de “Ingreso de control de visita de verificación”, en paso 1, debe incluir una lista del estado de cumplimiento (Cumplimiento, En proceso, Incumplimiento).</t>
+  </si>
+  <si>
+    <t>En la parte de “Ingreso de control de visita de verificación”, en paso 1, agregar un campo “nómina de personas del comité entrevistadas”.</t>
+  </si>
+  <si>
+    <t>Se define el nuevo nombre del Sistema: Sistema de Registro de Comités de SSO (SRCS).</t>
+  </si>
+  <si>
+    <t>Agregar memo y carta a acreditaciones. Pasar el contenido de la acreditación al nuevo formato</t>
+  </si>
+  <si>
+    <t>Quieren un cambio igual que en la programación de visitas y verificaciones?</t>
+  </si>
+  <si>
+    <t>En la parte de “Datos de control de visitas de verificaciones” en el paso 2, incluir fecha de capacitación y Facilitador, por cada temática</t>
+  </si>
+  <si>
+    <t>Considerar que la visita de verificación, debe realizarse posteriormente a los 6 meses de haber sido acreditado el comité de SSO</t>
+  </si>
+  <si>
+    <t>Programación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +150,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,6 +244,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +611,9 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -569,7 +654,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -577,7 +662,9 @@
         <v>13</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -600,28 +687,136 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="102" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
+++ b/trunk/requerimientos/Cambios 13 Nov 2014.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +271,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,14 +776,14 @@
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
